--- a/biology/Botanique/Benoît_Fondu/Benoît_Fondu.xlsx
+++ b/biology/Botanique/Benoît_Fondu/Benoît_Fondu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Fondu</t>
+          <t>Benoît_Fondu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benoît Fondu est un architecte paysagiste belge, diplômé de l'Institut supérieur industriel agronomique de Gembloux (1985) et également diplômé en restauration des paysages, parcs et jardins historiques de l'Architectural Association de Londres.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Fondu</t>
+          <t>Benoît_Fondu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benoît Fondu se forme au métier du paysage à Gembloux et à Londres, il crée des jardins depuis 1980 dans plusieurs pays européens[1].
-De 1982 à 2000, Benoît Fondu est l'administrateur de l’Arboretum de Kalmthout[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benoît Fondu se forme au métier du paysage à Gembloux et à Londres, il crée des jardins depuis 1980 dans plusieurs pays européens.
+De 1982 à 2000, Benoît Fondu est l'administrateur de l’Arboretum de Kalmthout.
 En 2008, à l'invitation de Bernard Blareau, il participe à la « première rencontre des métiers du paysage » : Le renouveau du paysage à Charleroi et intitule sa communication : Le métier de jardinier à le vent en poupe! Oui mais....
 En 2010, il participe à la troisième « rencontre des métiers du paysage », Paysage ou Nature, à Marcinelle où sa communication s'intitule La beauté pittoresque de l'arbre.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Fondu</t>
+          <t>Benoît_Fondu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +559,16 @@
           <t>Quelques réalisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Domaine provincial de Chevetogne en Belgique
 Parc du château de Seneffe en Belgique
 Château de Culzean en Écosse
 Verger de Clarence en Suisse
 Castella en Italie
-Le jardin philosophique dans les jardins de la Maison d'Érasme, à Anderlecht (Bruxelles)[1].
+Le jardin philosophique dans les jardins de la Maison d'Érasme, à Anderlecht (Bruxelles).
 Arboretum de Kalmthout en Belgique (ancien administrateur)</t>
         </is>
       </c>
